--- a/data/pca/factorExposure/factorExposure_2018-09-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-09-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03644561727168725</v>
+        <v>-0.0302049940693126</v>
       </c>
       <c r="C2">
-        <v>0.04436115382391618</v>
+        <v>-0.01219641370980863</v>
       </c>
       <c r="D2">
-        <v>0.03767455892441454</v>
+        <v>-0.0111251755903212</v>
       </c>
       <c r="E2">
-        <v>0.04885865134720103</v>
+        <v>0.01355174017542323</v>
       </c>
       <c r="F2">
-        <v>0.1454096206018405</v>
+        <v>-0.02287367488209105</v>
       </c>
       <c r="G2">
-        <v>0.08987635947093453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.07733128115308928</v>
+      </c>
+      <c r="H2">
+        <v>0.01893826203663508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1212625644337867</v>
+        <v>-0.0771213077160308</v>
       </c>
       <c r="C3">
-        <v>0.01644808727738357</v>
+        <v>0.02082512096190757</v>
       </c>
       <c r="D3">
-        <v>0.04403125415466666</v>
+        <v>-0.02006715156895003</v>
       </c>
       <c r="E3">
-        <v>0.08353689255965574</v>
+        <v>0.00810364037585048</v>
       </c>
       <c r="F3">
-        <v>0.4045923539193625</v>
+        <v>0.007352964570197238</v>
       </c>
       <c r="G3">
-        <v>0.2299729351981114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.2643997967822887</v>
+      </c>
+      <c r="H3">
+        <v>0.04883259829542944</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.049354586160464</v>
+        <v>-0.04638308701794814</v>
       </c>
       <c r="C4">
-        <v>0.03872125927735887</v>
+        <v>0.0004495329173639551</v>
       </c>
       <c r="D4">
-        <v>-0.002882141076492903</v>
+        <v>-0.02675331720936346</v>
       </c>
       <c r="E4">
-        <v>0.06762696815802653</v>
+        <v>-0.02250083278437694</v>
       </c>
       <c r="F4">
-        <v>0.06207114339816169</v>
+        <v>-0.06068610275868987</v>
       </c>
       <c r="G4">
-        <v>0.06477180150730759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04311979751875013</v>
+      </c>
+      <c r="H4">
+        <v>0.02973293751225638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01078500381631329</v>
+        <v>-0.03025857168016198</v>
       </c>
       <c r="C6">
-        <v>0.000870582846730876</v>
+        <v>-6.813759331925506e-05</v>
       </c>
       <c r="D6">
-        <v>0.01217855851654755</v>
+        <v>-0.03359195226425507</v>
       </c>
       <c r="E6">
-        <v>0.00733709526387266</v>
+        <v>-0.00654621937572209</v>
       </c>
       <c r="F6">
-        <v>0.01230960948870479</v>
+        <v>-0.03794054746528837</v>
       </c>
       <c r="G6">
-        <v>-0.01853292826007825</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01298519439506907</v>
+      </c>
+      <c r="H6">
+        <v>0.0522828361970633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02620238579299966</v>
+        <v>-0.0209460972556304</v>
       </c>
       <c r="C7">
-        <v>0.0188073172143008</v>
+        <v>-0.0002989151608343308</v>
       </c>
       <c r="D7">
-        <v>0.02957993102406619</v>
+        <v>-0.01528211199154338</v>
       </c>
       <c r="E7">
-        <v>0.04026857099124435</v>
+        <v>-0.03664299911394796</v>
       </c>
       <c r="F7">
-        <v>0.06790586849819044</v>
+        <v>-0.02388513513292981</v>
       </c>
       <c r="G7">
-        <v>0.05547179584926899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03384932092647246</v>
+      </c>
+      <c r="H7">
+        <v>0.01589720053604683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01082714187664722</v>
+        <v>-0.001309636344464195</v>
       </c>
       <c r="C8">
-        <v>0.01179579200876746</v>
+        <v>0.0007104780047642088</v>
       </c>
       <c r="D8">
-        <v>-0.006615706883941752</v>
+        <v>-0.00889904651849114</v>
       </c>
       <c r="E8">
-        <v>0.07362452567367835</v>
+        <v>-0.01326570875415046</v>
       </c>
       <c r="F8">
-        <v>0.08885804653386738</v>
+        <v>-0.02567909843782827</v>
       </c>
       <c r="G8">
-        <v>0.06338284068008666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.05010774966844491</v>
+      </c>
+      <c r="H8">
+        <v>0.01018276904890746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04015420308604918</v>
+        <v>-0.03624447543697401</v>
       </c>
       <c r="C9">
-        <v>0.03395206629210335</v>
+        <v>0.00343808154318569</v>
       </c>
       <c r="D9">
-        <v>-0.01559980790358079</v>
+        <v>-0.02245151385173983</v>
       </c>
       <c r="E9">
-        <v>0.06807519092222168</v>
+        <v>-0.02022418834477427</v>
       </c>
       <c r="F9">
-        <v>0.06682754461515646</v>
+        <v>-0.0393276515021377</v>
       </c>
       <c r="G9">
-        <v>0.04733874106116673</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.05576527628170596</v>
+      </c>
+      <c r="H9">
+        <v>0.02876414918435639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05843077882577243</v>
+        <v>-0.08794533043704647</v>
       </c>
       <c r="C10">
-        <v>0.04786587326234961</v>
+        <v>0.04060257622444372</v>
       </c>
       <c r="D10">
-        <v>-0.01383361018217462</v>
+        <v>0.143798745940361</v>
       </c>
       <c r="E10">
-        <v>-0.1184498870978798</v>
+        <v>0.02195551371284647</v>
       </c>
       <c r="F10">
-        <v>0.05367312676621636</v>
+        <v>0.08352362246269265</v>
       </c>
       <c r="G10">
-        <v>-0.004504709834573078</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02799740912592527</v>
+      </c>
+      <c r="H10">
+        <v>0.00497024277752675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03179626564260209</v>
+        <v>-0.02190822172394006</v>
       </c>
       <c r="C11">
-        <v>0.01180964439946951</v>
+        <v>0.01060931990854982</v>
       </c>
       <c r="D11">
-        <v>0.01508606372031751</v>
+        <v>-0.03153561698992909</v>
       </c>
       <c r="E11">
-        <v>0.03642149486584069</v>
+        <v>0.002693082980211111</v>
       </c>
       <c r="F11">
-        <v>0.03659120190186555</v>
+        <v>-0.02509950011729352</v>
       </c>
       <c r="G11">
-        <v>0.01907404607214574</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.03304147427862375</v>
+      </c>
+      <c r="H11">
+        <v>0.02879921098822979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03888053499889577</v>
+        <v>-0.03068460724599694</v>
       </c>
       <c r="C12">
-        <v>0.01328091424085797</v>
+        <v>0.009907208753184115</v>
       </c>
       <c r="D12">
-        <v>0.002187515286007705</v>
+        <v>-0.03029460165877371</v>
       </c>
       <c r="E12">
-        <v>0.04626527377321082</v>
+        <v>-0.008300825450968516</v>
       </c>
       <c r="F12">
-        <v>0.01835278518816314</v>
+        <v>-0.02840061029835134</v>
       </c>
       <c r="G12">
-        <v>0.01525405637082594</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.01070385961224653</v>
+      </c>
+      <c r="H12">
+        <v>0.01511634664612015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01740058196688856</v>
+        <v>-0.02463222675870082</v>
       </c>
       <c r="C13">
-        <v>0.02286177859843846</v>
+        <v>-0.01138846941312464</v>
       </c>
       <c r="D13">
-        <v>0.03506609403722661</v>
+        <v>-0.002282655526188306</v>
       </c>
       <c r="E13">
-        <v>0.02136444940966633</v>
+        <v>0.0158110274178826</v>
       </c>
       <c r="F13">
-        <v>0.08823908793636118</v>
+        <v>-0.02187821260233181</v>
       </c>
       <c r="G13">
-        <v>0.04826319964690023</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.06180659392233091</v>
+      </c>
+      <c r="H13">
+        <v>0.02761692690954424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01031429056679236</v>
+        <v>-0.01557378080069753</v>
       </c>
       <c r="C14">
-        <v>0.02156984414096998</v>
+        <v>0.001640050199492608</v>
       </c>
       <c r="D14">
-        <v>0.003218655720308837</v>
+        <v>-0.0001473924070224309</v>
       </c>
       <c r="E14">
-        <v>0.03907724657690719</v>
+        <v>-0.008687081745914864</v>
       </c>
       <c r="F14">
-        <v>0.06802450764468758</v>
+        <v>-0.02557863586855552</v>
       </c>
       <c r="G14">
-        <v>0.06060667152616241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04242515695426219</v>
+      </c>
+      <c r="H14">
+        <v>-0.01763758644258645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02445362286476412</v>
+        <v>-0.02282607419556376</v>
       </c>
       <c r="C16">
-        <v>0.01249721042088861</v>
+        <v>0.0110871956840315</v>
       </c>
       <c r="D16">
-        <v>0.01283375723346783</v>
+        <v>-0.02680916066580116</v>
       </c>
       <c r="E16">
-        <v>0.03440463561280554</v>
+        <v>-0.002069274128871167</v>
       </c>
       <c r="F16">
-        <v>0.03899063621614134</v>
+        <v>-0.02564946309864539</v>
       </c>
       <c r="G16">
-        <v>0.02350673088276296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02815270086909271</v>
+      </c>
+      <c r="H16">
+        <v>0.02273074569183239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03653952783416905</v>
+        <v>-0.03390280405876344</v>
       </c>
       <c r="C19">
-        <v>0.01515994511345297</v>
+        <v>0.004272065983670837</v>
       </c>
       <c r="D19">
-        <v>0.02059912071316089</v>
+        <v>-0.008491712577030569</v>
       </c>
       <c r="E19">
-        <v>0.04623555065884932</v>
+        <v>0.001329696014916807</v>
       </c>
       <c r="F19">
-        <v>0.09962497130630787</v>
+        <v>-0.03242192339575497</v>
       </c>
       <c r="G19">
-        <v>0.05763795279272841</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.06696740997924061</v>
+      </c>
+      <c r="H19">
+        <v>0.04040099949411879</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.00557031480346527</v>
+        <v>-0.006901265110264631</v>
       </c>
       <c r="C20">
-        <v>0.02349623836246345</v>
+        <v>-0.006769182837291153</v>
       </c>
       <c r="D20">
-        <v>0.006610276905532485</v>
+        <v>-0.0002187233854368973</v>
       </c>
       <c r="E20">
-        <v>0.03125069932264889</v>
+        <v>-0.001828336898135644</v>
       </c>
       <c r="F20">
-        <v>0.06712409289302172</v>
+        <v>-0.01766510288709419</v>
       </c>
       <c r="G20">
-        <v>0.05901689674853176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05006423269033046</v>
+      </c>
+      <c r="H20">
+        <v>-0.007906198218944073</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.003448780119750593</v>
+        <v>-0.02046304430239143</v>
       </c>
       <c r="C21">
-        <v>-0.002211917232370798</v>
+        <v>-0.00450825781904269</v>
       </c>
       <c r="D21">
-        <v>0.003839232890340216</v>
+        <v>-0.0005233899827942931</v>
       </c>
       <c r="E21">
-        <v>0.03346840551493029</v>
+        <v>-0.01298622300571915</v>
       </c>
       <c r="F21">
-        <v>0.07863967643214792</v>
+        <v>-0.007830536229880421</v>
       </c>
       <c r="G21">
-        <v>0.01928606475356008</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05278054434261746</v>
+      </c>
+      <c r="H21">
+        <v>0.009998533477781159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02741827276331765</v>
+        <v>-0.02182055306370962</v>
       </c>
       <c r="C24">
-        <v>0.01341095978597721</v>
+        <v>0.005660190045737745</v>
       </c>
       <c r="D24">
-        <v>0.009198268217201268</v>
+        <v>-0.02730408103661162</v>
       </c>
       <c r="E24">
-        <v>0.02788642486853493</v>
+        <v>-0.002113264656109688</v>
       </c>
       <c r="F24">
-        <v>0.03667566714722703</v>
+        <v>-0.02196273645832082</v>
       </c>
       <c r="G24">
-        <v>0.01171052114883037</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.0268369056091643</v>
+      </c>
+      <c r="H24">
+        <v>0.02829078880398153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03028925969243333</v>
+        <v>-0.03276201850310459</v>
       </c>
       <c r="C25">
-        <v>0.01215259105172578</v>
+        <v>0.005480448741361191</v>
       </c>
       <c r="D25">
-        <v>0.007247513026094602</v>
+        <v>-0.02234613718681137</v>
       </c>
       <c r="E25">
-        <v>0.03664213282959206</v>
+        <v>-0.002506956119993934</v>
       </c>
       <c r="F25">
-        <v>0.03317498879167213</v>
+        <v>-0.02677790495607973</v>
       </c>
       <c r="G25">
-        <v>0.005050270130965442</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.03049089114738511</v>
+      </c>
+      <c r="H25">
+        <v>0.03065535263949147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01796539530582745</v>
+        <v>-0.01884090961804124</v>
       </c>
       <c r="C26">
-        <v>0.0008025710443287935</v>
+        <v>-0.01614850616118834</v>
       </c>
       <c r="D26">
-        <v>0.03472426182100213</v>
+        <v>-0.003438620977561857</v>
       </c>
       <c r="E26">
-        <v>0.04091728319392144</v>
+        <v>0.005952471863913516</v>
       </c>
       <c r="F26">
-        <v>0.05446792515011353</v>
+        <v>-0.006291967606857466</v>
       </c>
       <c r="G26">
-        <v>0.03435028593647167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03574590763062046</v>
+      </c>
+      <c r="H26">
+        <v>-0.000891941853898767</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0731268411891913</v>
+        <v>-0.03180859571976887</v>
       </c>
       <c r="C27">
-        <v>0.05118367947241416</v>
+        <v>0.01627944876688419</v>
       </c>
       <c r="D27">
-        <v>0.001790475977336821</v>
+        <v>-0.007803106380380722</v>
       </c>
       <c r="E27">
-        <v>0.06045246606125496</v>
+        <v>-0.004604621110359954</v>
       </c>
       <c r="F27">
-        <v>0.05670807787785841</v>
+        <v>-0.02810300250053374</v>
       </c>
       <c r="G27">
-        <v>0.06145860179617926</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.02633688077423566</v>
+      </c>
+      <c r="H27">
+        <v>-0.0001301098460178988</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.08383288078757999</v>
+        <v>-0.133771383598424</v>
       </c>
       <c r="C28">
-        <v>0.06172242153300653</v>
+        <v>0.04740620513391341</v>
       </c>
       <c r="D28">
-        <v>-0.02950338802400364</v>
+        <v>0.2119304504760322</v>
       </c>
       <c r="E28">
-        <v>-0.1805992619657105</v>
+        <v>0.02816341770161766</v>
       </c>
       <c r="F28">
-        <v>0.06556133156312252</v>
+        <v>0.1150310853155212</v>
       </c>
       <c r="G28">
-        <v>0.02883693788689154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.009786636127987089</v>
+      </c>
+      <c r="H28">
+        <v>-0.007537802384756279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01826355346675203</v>
+        <v>-0.01997746388228831</v>
       </c>
       <c r="C29">
-        <v>0.0236192396376642</v>
+        <v>0.004154240484078087</v>
       </c>
       <c r="D29">
-        <v>-0.004625054994965042</v>
+        <v>-0.00231349577914934</v>
       </c>
       <c r="E29">
-        <v>0.05842730285510158</v>
+        <v>-0.01090635522058585</v>
       </c>
       <c r="F29">
-        <v>0.04830316646846766</v>
+        <v>-0.02837688388430042</v>
       </c>
       <c r="G29">
-        <v>0.06091154279176214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.0343198422584672</v>
+      </c>
+      <c r="H29">
+        <v>-0.01925643845657757</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08120681658852898</v>
+        <v>-0.05450932392513561</v>
       </c>
       <c r="C30">
-        <v>0.05875540196618091</v>
+        <v>0.002634726028390781</v>
       </c>
       <c r="D30">
-        <v>0.03347149161387654</v>
+        <v>-0.05030800103157853</v>
       </c>
       <c r="E30">
-        <v>0.09226072773009673</v>
+        <v>0.03241069797360548</v>
       </c>
       <c r="F30">
-        <v>0.05424275160316881</v>
+        <v>-0.08006042786348389</v>
       </c>
       <c r="G30">
-        <v>0.02272724689977599</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.06126857312981993</v>
+      </c>
+      <c r="H30">
+        <v>0.03906917460928818</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05865697734739888</v>
+        <v>-0.05325933933094378</v>
       </c>
       <c r="C31">
-        <v>0.01707020797069191</v>
+        <v>0.02046194947175294</v>
       </c>
       <c r="D31">
-        <v>0.04860694625677008</v>
+        <v>-0.02262836494506574</v>
       </c>
       <c r="E31">
-        <v>0.04201051982267331</v>
+        <v>0.008675291887526354</v>
       </c>
       <c r="F31">
-        <v>0.03516907000983087</v>
+        <v>-0.02362492234565763</v>
       </c>
       <c r="G31">
-        <v>0.08552005167064168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02078073588763716</v>
+      </c>
+      <c r="H31">
+        <v>-0.01421002107736022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01542807940829761</v>
+        <v>-0.008598163058802349</v>
       </c>
       <c r="C32">
-        <v>0.02481815586147858</v>
+        <v>0.01539414912630512</v>
       </c>
       <c r="D32">
-        <v>-0.003647470777532586</v>
+        <v>0.008775165310748205</v>
       </c>
       <c r="E32">
-        <v>0.07179036398374887</v>
+        <v>-0.01934209811565157</v>
       </c>
       <c r="F32">
-        <v>0.06605641138391735</v>
+        <v>-0.04168825544870745</v>
       </c>
       <c r="G32">
-        <v>0.04267291759906167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.0485199653442873</v>
+      </c>
+      <c r="H32">
+        <v>0.04419096713700636</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05044732116009642</v>
+        <v>-0.03782769443382551</v>
       </c>
       <c r="C33">
-        <v>0.004552163764879937</v>
+        <v>0.004235879513823608</v>
       </c>
       <c r="D33">
-        <v>0.0436845730683326</v>
+        <v>-0.02952526670940387</v>
       </c>
       <c r="E33">
-        <v>0.07237211285340993</v>
+        <v>0.02180643350609642</v>
       </c>
       <c r="F33">
-        <v>0.08907134102565982</v>
+        <v>-0.01645919737406294</v>
       </c>
       <c r="G33">
-        <v>0.04274490848899951</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.05743592501609313</v>
+      </c>
+      <c r="H33">
+        <v>0.01862999579643295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02987873413355615</v>
+        <v>-0.02629171513940008</v>
       </c>
       <c r="C34">
-        <v>0.01710519217693217</v>
+        <v>0.02004850198604451</v>
       </c>
       <c r="D34">
-        <v>0.01188668262140334</v>
+        <v>-0.02649926046967521</v>
       </c>
       <c r="E34">
-        <v>0.04182710415330525</v>
+        <v>-0.006565983555566874</v>
       </c>
       <c r="F34">
-        <v>0.04177305954009138</v>
+        <v>-0.02761326580590692</v>
       </c>
       <c r="G34">
-        <v>0.01228419398776233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02620660648568832</v>
+      </c>
+      <c r="H34">
+        <v>0.02611078489986455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01348870327313231</v>
+        <v>-0.01862386273091577</v>
       </c>
       <c r="C36">
-        <v>0.01162037451330305</v>
+        <v>-0.002350222396811297</v>
       </c>
       <c r="D36">
-        <v>0.002335006575705466</v>
+        <v>0.002934701605801063</v>
       </c>
       <c r="E36">
-        <v>0.02810701943130359</v>
+        <v>-0.002477927838478162</v>
       </c>
       <c r="F36">
-        <v>0.02611316666258303</v>
+        <v>-0.007599759480637494</v>
       </c>
       <c r="G36">
-        <v>0.03594733656506396</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01806284487701348</v>
+      </c>
+      <c r="H36">
+        <v>-0.004196155000370376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.007856813169291901</v>
+        <v>-0.01722404924691354</v>
       </c>
       <c r="C38">
-        <v>-0.001370414124684652</v>
+        <v>0.01774822936029548</v>
       </c>
       <c r="D38">
-        <v>-0.01080814538265549</v>
+        <v>0.00460862692338868</v>
       </c>
       <c r="E38">
-        <v>-0.01028762098397138</v>
+        <v>-0.0056085122550877</v>
       </c>
       <c r="F38">
-        <v>0.005232077078787058</v>
+        <v>-0.007812005706224987</v>
       </c>
       <c r="G38">
-        <v>-0.004407443876035888</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02521466505072079</v>
+      </c>
+      <c r="H38">
+        <v>0.02105027753378427</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03745628971404591</v>
+        <v>-0.02346090237607878</v>
       </c>
       <c r="C39">
-        <v>0.02280786193091002</v>
+        <v>0.003797320768618795</v>
       </c>
       <c r="D39">
-        <v>0.02946565362652583</v>
+        <v>-0.0640929502300888</v>
       </c>
       <c r="E39">
-        <v>0.04316742159140201</v>
+        <v>-2.689349276579173e-05</v>
       </c>
       <c r="F39">
-        <v>0.04477068762106083</v>
+        <v>-0.04811623913804457</v>
       </c>
       <c r="G39">
-        <v>0.01504097087112196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.0532972543020693</v>
+      </c>
+      <c r="H39">
+        <v>0.05159372720609612</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02840684472133222</v>
+        <v>-0.02726663535726159</v>
       </c>
       <c r="C40">
-        <v>0.03752500608209684</v>
+        <v>0.002890562730264448</v>
       </c>
       <c r="D40">
-        <v>0.0559701751972048</v>
+        <v>-0.0204664768838345</v>
       </c>
       <c r="E40">
-        <v>0.0383705105207894</v>
+        <v>0.01838166633697872</v>
       </c>
       <c r="F40">
-        <v>0.08549140815471218</v>
+        <v>-0.03822810203913865</v>
       </c>
       <c r="G40">
-        <v>0.05466603895301991</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.03810272010411655</v>
+      </c>
+      <c r="H40">
+        <v>0.04629517867837437</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001875898036614244</v>
+        <v>-0.007638766875693635</v>
       </c>
       <c r="C41">
-        <v>-0.007881525696712563</v>
+        <v>-0.0006444940878099573</v>
       </c>
       <c r="D41">
-        <v>0.005863790526024466</v>
+        <v>0.008720912771928283</v>
       </c>
       <c r="E41">
-        <v>0.0214428589114313</v>
+        <v>0.001644453193663258</v>
       </c>
       <c r="F41">
-        <v>0.01579605682156673</v>
+        <v>0.005040188656472</v>
       </c>
       <c r="G41">
-        <v>0.05781731447947283</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.008238770091343904</v>
+      </c>
+      <c r="H41">
+        <v>-0.01780438733377798</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3742294480440537</v>
+        <v>-0.2148702022519737</v>
       </c>
       <c r="C42">
-        <v>-0.8906160444899728</v>
+        <v>-0.08876211253480878</v>
       </c>
       <c r="D42">
-        <v>0.1687648283144396</v>
+        <v>-0.5990030455057057</v>
       </c>
       <c r="E42">
-        <v>-0.08568279625191659</v>
+        <v>0.1250756036203209</v>
       </c>
       <c r="F42">
-        <v>-0.0298055126520935</v>
+        <v>0.7409915335968714</v>
       </c>
       <c r="G42">
-        <v>0.008452091060761792</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.0742471264282001</v>
+      </c>
+      <c r="H42">
+        <v>0.01468473743385553</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.00800040178001369</v>
+        <v>-0.004779064330640338</v>
       </c>
       <c r="C43">
-        <v>-0.004432526862211931</v>
+        <v>-0.003369537881757582</v>
       </c>
       <c r="D43">
-        <v>0.009265605460571223</v>
+        <v>0.01085712738704205</v>
       </c>
       <c r="E43">
-        <v>0.02382680174600714</v>
+        <v>0.005745299846549738</v>
       </c>
       <c r="F43">
-        <v>0.03269546681257336</v>
+        <v>0.01008585229271312</v>
       </c>
       <c r="G43">
-        <v>0.05541255033624683</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01595027999614292</v>
+      </c>
+      <c r="H43">
+        <v>-0.009400202042412492</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01873608961069581</v>
+        <v>-0.01223904595225088</v>
       </c>
       <c r="C44">
-        <v>0.005273760398817004</v>
+        <v>0.0005787766026045771</v>
       </c>
       <c r="D44">
-        <v>0.0239474042690421</v>
+        <v>-0.02167501389060824</v>
       </c>
       <c r="E44">
-        <v>0.06436465994381267</v>
+        <v>-0.002102833664230809</v>
       </c>
       <c r="F44">
-        <v>0.189452173910101</v>
+        <v>-0.006687515273221925</v>
       </c>
       <c r="G44">
-        <v>0.1646069663678273</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.08582032896705795</v>
+      </c>
+      <c r="H44">
+        <v>0.01720755122511818</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01719769152522912</v>
+        <v>-0.021019626556551</v>
       </c>
       <c r="C46">
-        <v>0.02253967007597863</v>
+        <v>0.0006412873565345009</v>
       </c>
       <c r="D46">
-        <v>0.02030652408905395</v>
+        <v>-0.004410120719844109</v>
       </c>
       <c r="E46">
-        <v>0.06747517686911145</v>
+        <v>0.001214450772967848</v>
       </c>
       <c r="F46">
-        <v>0.06876519047424944</v>
+        <v>-0.03332784228163099</v>
       </c>
       <c r="G46">
-        <v>0.04556616276909478</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05402740650592762</v>
+      </c>
+      <c r="H46">
+        <v>-0.01242909526203299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09364071552664029</v>
+        <v>-0.07352816228303803</v>
       </c>
       <c r="C47">
-        <v>0.03424295550980627</v>
+        <v>0.03861794161058952</v>
       </c>
       <c r="D47">
-        <v>0.02548487304960603</v>
+        <v>-0.02780903276319558</v>
       </c>
       <c r="E47">
-        <v>0.0459262559685611</v>
+        <v>0.004356994267921337</v>
       </c>
       <c r="F47">
-        <v>0.006139825403497804</v>
+        <v>-0.03406186916010819</v>
       </c>
       <c r="G47">
-        <v>0.09531049365005026</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.011064399973228</v>
+      </c>
+      <c r="H47">
+        <v>-0.03131933354387189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.009986822759194075</v>
+        <v>-0.01776937445696732</v>
       </c>
       <c r="C48">
-        <v>0.007331516951285906</v>
+        <v>0.007486250090052117</v>
       </c>
       <c r="D48">
-        <v>0.01314211389292709</v>
+        <v>-0.003159341941019455</v>
       </c>
       <c r="E48">
-        <v>0.03957056164391062</v>
+        <v>0.001198673540085402</v>
       </c>
       <c r="F48">
-        <v>0.04044446260353577</v>
+        <v>-0.01249734023024911</v>
       </c>
       <c r="G48">
-        <v>0.01016846503946877</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02495171467428054</v>
+      </c>
+      <c r="H48">
+        <v>0.0008164622931071032</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.085681305506352</v>
+        <v>-0.06627015348543537</v>
       </c>
       <c r="C50">
-        <v>0.01681082299023748</v>
+        <v>0.03196713030128234</v>
       </c>
       <c r="D50">
-        <v>0.03641479961198545</v>
+        <v>-0.03994914447120624</v>
       </c>
       <c r="E50">
-        <v>0.06341107053525596</v>
+        <v>-0.0109579121784445</v>
       </c>
       <c r="F50">
-        <v>0.02432552426542584</v>
+        <v>-0.03113271015479866</v>
       </c>
       <c r="G50">
-        <v>0.02135346042034488</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01992852688456638</v>
+      </c>
+      <c r="H50">
+        <v>-0.02607295261672569</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.039664145354665</v>
+        <v>-0.02592233821933633</v>
       </c>
       <c r="C51">
-        <v>-0.006345046772494301</v>
+        <v>0.003239418163588213</v>
       </c>
       <c r="D51">
-        <v>0.04567499760522949</v>
+        <v>0.002414596306871902</v>
       </c>
       <c r="E51">
-        <v>0.01966914194558669</v>
+        <v>0.01283543106597583</v>
       </c>
       <c r="F51">
-        <v>0.140691140132007</v>
+        <v>0.01777188951529994</v>
       </c>
       <c r="G51">
-        <v>0.06173543390793187</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.07383453123359811</v>
+      </c>
+      <c r="H51">
+        <v>0.02097393174088242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1018234394113348</v>
+        <v>-0.0939465990579528</v>
       </c>
       <c r="C53">
-        <v>0.04828706125324925</v>
+        <v>0.04852901814839777</v>
       </c>
       <c r="D53">
-        <v>0.04201769808091468</v>
+        <v>-0.05325644052111873</v>
       </c>
       <c r="E53">
-        <v>0.05405049838132428</v>
+        <v>0.001236573421182286</v>
       </c>
       <c r="F53">
-        <v>-0.05650490606297326</v>
+        <v>-0.06843721654945746</v>
       </c>
       <c r="G53">
-        <v>0.04247411760157952</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.05769650495221253</v>
+      </c>
+      <c r="H53">
+        <v>-0.03687886194091548</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02010371894066819</v>
+        <v>-0.02295396303080065</v>
       </c>
       <c r="C54">
-        <v>0.0384464438330811</v>
+        <v>0.01556681874286641</v>
       </c>
       <c r="D54">
-        <v>0.001667802299124264</v>
+        <v>0.02475099490012673</v>
       </c>
       <c r="E54">
-        <v>0.02751907306876643</v>
+        <v>-0.002954060785736595</v>
       </c>
       <c r="F54">
-        <v>0.07899905254872826</v>
+        <v>-0.01021050246202596</v>
       </c>
       <c r="G54">
-        <v>0.06737901990788975</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.04046597784767422</v>
+      </c>
+      <c r="H54">
+        <v>-0.01734021548319275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09872329761603459</v>
+        <v>-0.08109768220333295</v>
       </c>
       <c r="C55">
-        <v>0.03534731505569389</v>
+        <v>0.04281920447712647</v>
       </c>
       <c r="D55">
-        <v>-0.0003245312884059989</v>
+        <v>-0.05190741314151894</v>
       </c>
       <c r="E55">
-        <v>0.05735999883664896</v>
+        <v>-0.01076894957509896</v>
       </c>
       <c r="F55">
-        <v>-0.04368551095340036</v>
+        <v>-0.05762554759885653</v>
       </c>
       <c r="G55">
-        <v>0.05834089678150453</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03396543550764521</v>
+      </c>
+      <c r="H55">
+        <v>-0.04820579321020918</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1415314488567001</v>
+        <v>-0.1249134454838929</v>
       </c>
       <c r="C56">
-        <v>0.07671737849116517</v>
+        <v>0.07097658417090856</v>
       </c>
       <c r="D56">
-        <v>0.02709951260635051</v>
+        <v>-0.07134910781064241</v>
       </c>
       <c r="E56">
-        <v>0.07381659090413761</v>
+        <v>-0.004048542868561814</v>
       </c>
       <c r="F56">
-        <v>-0.1613981036648937</v>
+        <v>-0.09715153457882697</v>
       </c>
       <c r="G56">
-        <v>0.02808874425289832</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1018755272240723</v>
+      </c>
+      <c r="H56">
+        <v>-0.02996582196258709</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04181073045963055</v>
+        <v>-0.04565797207248569</v>
       </c>
       <c r="C57">
-        <v>0.01580663696367983</v>
+        <v>-0.003066837633691605</v>
       </c>
       <c r="D57">
-        <v>0.03351777642115087</v>
+        <v>-0.01631522194738631</v>
       </c>
       <c r="E57">
-        <v>0.007898241796434254</v>
+        <v>0.01034349909072512</v>
       </c>
       <c r="F57">
-        <v>0.07333775038128523</v>
+        <v>-0.02835504278159755</v>
       </c>
       <c r="G57">
-        <v>0.01958641380172966</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.05974923818208844</v>
+      </c>
+      <c r="H57">
+        <v>0.01327837111690209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2025511163878248</v>
+        <v>-0.1517638310379222</v>
       </c>
       <c r="C58">
-        <v>0.06044065613000425</v>
+        <v>0.06191032862211417</v>
       </c>
       <c r="D58">
-        <v>0.1100603389546094</v>
+        <v>-0.1130329183402714</v>
       </c>
       <c r="E58">
-        <v>0.2329066467772387</v>
+        <v>0.1152854411708091</v>
       </c>
       <c r="F58">
-        <v>0.2825850914686674</v>
+        <v>-0.06040089063880107</v>
       </c>
       <c r="G58">
-        <v>-0.3527545613275042</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.7019712915249977</v>
+      </c>
+      <c r="H58">
+        <v>-0.5291795372679425</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.08057393933493848</v>
+        <v>-0.1358383467889561</v>
       </c>
       <c r="C59">
-        <v>0.08669979716358207</v>
+        <v>0.05488111020756325</v>
       </c>
       <c r="D59">
-        <v>-0.0203231691529895</v>
+        <v>0.2113264019164391</v>
       </c>
       <c r="E59">
-        <v>-0.1563114159356114</v>
+        <v>0.04485691214330759</v>
       </c>
       <c r="F59">
-        <v>0.06291812290912033</v>
+        <v>0.09467442887829371</v>
       </c>
       <c r="G59">
-        <v>-0.001612299038370042</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01648264972378693</v>
+      </c>
+      <c r="H59">
+        <v>0.02291616833609868</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1657653442151257</v>
+        <v>-0.1694918022453859</v>
       </c>
       <c r="C60">
-        <v>0.06610445467865869</v>
+        <v>0.05826355343759113</v>
       </c>
       <c r="D60">
-        <v>0.07092967855430582</v>
+        <v>-0.008345234410899951</v>
       </c>
       <c r="E60">
-        <v>0.02288095219877839</v>
+        <v>0.05357917597019915</v>
       </c>
       <c r="F60">
-        <v>0.08414262424176841</v>
+        <v>-0.06301082502503937</v>
       </c>
       <c r="G60">
-        <v>-0.2910919845111165</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.1166905496751869</v>
+      </c>
+      <c r="H60">
+        <v>0.3775986919879228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02037649050863792</v>
+        <v>-0.02277908825184122</v>
       </c>
       <c r="C61">
-        <v>0.01338792875372397</v>
+        <v>0.009294320979306507</v>
       </c>
       <c r="D61">
-        <v>0.005190894472740456</v>
+        <v>-0.03337673219599793</v>
       </c>
       <c r="E61">
-        <v>0.01871815340549492</v>
+        <v>-0.003878032803325299</v>
       </c>
       <c r="F61">
-        <v>0.03382153557676478</v>
+        <v>-0.03397480547076731</v>
       </c>
       <c r="G61">
-        <v>0.004530123934498547</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.03111245940772496</v>
+      </c>
+      <c r="H61">
+        <v>0.03842211776786292</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01801617092907774</v>
+        <v>-0.01464164247726557</v>
       </c>
       <c r="C63">
-        <v>0.01826343273226851</v>
+        <v>0.0008407396963297573</v>
       </c>
       <c r="D63">
-        <v>0.01235873313930785</v>
+        <v>-0.004164244172057375</v>
       </c>
       <c r="E63">
-        <v>0.04218061592550846</v>
+        <v>-0.002494024041721235</v>
       </c>
       <c r="F63">
-        <v>0.01228626304330851</v>
+        <v>-0.02282126644808313</v>
       </c>
       <c r="G63">
-        <v>0.03900631329206275</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01484903325520765</v>
+      </c>
+      <c r="H63">
+        <v>-0.01279612718467877</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.031464718022486</v>
+        <v>-0.0378514781154045</v>
       </c>
       <c r="C64">
-        <v>0.02419269161051206</v>
+        <v>0.01386683219678828</v>
       </c>
       <c r="D64">
-        <v>-0.01988811478438779</v>
+        <v>-0.02937380952702826</v>
       </c>
       <c r="E64">
-        <v>0.04457374530958502</v>
+        <v>-0.01292467000282883</v>
       </c>
       <c r="F64">
-        <v>0.02190438654850919</v>
+        <v>-0.02829708595677781</v>
       </c>
       <c r="G64">
-        <v>0.07206541890070388</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.01587587363557664</v>
+      </c>
+      <c r="H64">
+        <v>0.02853906580836105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01128362886518606</v>
+        <v>-0.03544175403516676</v>
       </c>
       <c r="C65">
-        <v>-0.0002960276108561604</v>
+        <v>0.0001194981183013417</v>
       </c>
       <c r="D65">
-        <v>0.01076255908696999</v>
+        <v>-0.0384330094297449</v>
       </c>
       <c r="E65">
-        <v>0.004539751830777208</v>
+        <v>-0.006695059206617761</v>
       </c>
       <c r="F65">
-        <v>0.007647106558109281</v>
+        <v>-0.03912563566585184</v>
       </c>
       <c r="G65">
-        <v>-0.01883585979294115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.002594687866971735</v>
+      </c>
+      <c r="H65">
+        <v>0.06019104144712741</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03511365066471423</v>
+        <v>-0.03048143973783279</v>
       </c>
       <c r="C66">
-        <v>0.02665412909340755</v>
+        <v>0.009866698555165733</v>
       </c>
       <c r="D66">
-        <v>0.02218900007539646</v>
+        <v>-0.07110595058491279</v>
       </c>
       <c r="E66">
-        <v>0.04631492805386136</v>
+        <v>0.004644261527430883</v>
       </c>
       <c r="F66">
-        <v>0.03821112509502318</v>
+        <v>-0.06814820819379924</v>
       </c>
       <c r="G66">
-        <v>0.00612781744344992</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.04348573475872723</v>
+      </c>
+      <c r="H66">
+        <v>0.06200285319626526</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02639344045603504</v>
+        <v>-0.0369464302037348</v>
       </c>
       <c r="C67">
-        <v>0.00681019474258806</v>
+        <v>0.023290718277841</v>
       </c>
       <c r="D67">
-        <v>-0.01220907503240303</v>
+        <v>0.01109395992457048</v>
       </c>
       <c r="E67">
-        <v>-0.03632387276349425</v>
+        <v>-0.002074616627973272</v>
       </c>
       <c r="F67">
-        <v>0.01077121631928005</v>
+        <v>-0.009861680367568567</v>
       </c>
       <c r="G67">
-        <v>-0.002925661176939391</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.0152386457349449</v>
+      </c>
+      <c r="H67">
+        <v>0.03174283212486107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08842572217848205</v>
+        <v>-0.1387572608241534</v>
       </c>
       <c r="C68">
-        <v>0.06771440558470437</v>
+        <v>0.03337680755150049</v>
       </c>
       <c r="D68">
-        <v>-0.03471461616339361</v>
+        <v>0.195801829787321</v>
       </c>
       <c r="E68">
-        <v>-0.1786529708081309</v>
+        <v>0.03977844568497169</v>
       </c>
       <c r="F68">
-        <v>0.03614062568805353</v>
+        <v>0.1125338774791595</v>
       </c>
       <c r="G68">
-        <v>-0.0524132020912982</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01657465588142112</v>
+      </c>
+      <c r="H68">
+        <v>-0.03766171014602697</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07295086815856092</v>
+        <v>-0.057019936686161</v>
       </c>
       <c r="C69">
-        <v>0.03386178728973825</v>
+        <v>0.03464216531582155</v>
       </c>
       <c r="D69">
-        <v>0.02626477615077239</v>
+        <v>-0.0254952638686658</v>
       </c>
       <c r="E69">
-        <v>0.008431931314058158</v>
+        <v>0.004079523726028951</v>
       </c>
       <c r="F69">
-        <v>0.02109659272612517</v>
+        <v>-0.03198541155594722</v>
       </c>
       <c r="G69">
-        <v>0.07324540518461303</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.003501372878264163</v>
+      </c>
+      <c r="H69">
+        <v>-0.01211890805302661</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1084171660460082</v>
+        <v>-0.1326698929954049</v>
       </c>
       <c r="C71">
-        <v>0.07075940852596782</v>
+        <v>0.04112565256234361</v>
       </c>
       <c r="D71">
-        <v>-0.01170594802622987</v>
+        <v>0.1826751366540171</v>
       </c>
       <c r="E71">
-        <v>-0.2164553988693703</v>
+        <v>0.03996448921676379</v>
       </c>
       <c r="F71">
-        <v>0.04830034454593531</v>
+        <v>0.1181754296407577</v>
       </c>
       <c r="G71">
-        <v>0.00355718516955992</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01475422385745026</v>
+      </c>
+      <c r="H71">
+        <v>-0.02135558401874163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1102402837335718</v>
+        <v>-0.0872457678912989</v>
       </c>
       <c r="C72">
-        <v>0.09815797667935508</v>
+        <v>0.0533891827673386</v>
       </c>
       <c r="D72">
-        <v>0.02039699654868592</v>
+        <v>-0.05330407280715927</v>
       </c>
       <c r="E72">
-        <v>0.06500517583734038</v>
+        <v>0.006953055046388932</v>
       </c>
       <c r="F72">
-        <v>0.08743865260446572</v>
+        <v>-0.1117222104119987</v>
       </c>
       <c r="G72">
-        <v>-0.1658455157117099</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.09492846412583947</v>
+      </c>
+      <c r="H72">
+        <v>0.1506259221585816</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2506733851080897</v>
+        <v>-0.2379449171691131</v>
       </c>
       <c r="C73">
-        <v>0.0951657190429301</v>
+        <v>0.07675731711478513</v>
       </c>
       <c r="D73">
-        <v>0.06728583265407084</v>
+        <v>-0.03759380577172897</v>
       </c>
       <c r="E73">
-        <v>-0.02057109807349889</v>
+        <v>0.08273194083932975</v>
       </c>
       <c r="F73">
-        <v>0.1609520298833812</v>
+        <v>-0.07733597203037916</v>
       </c>
       <c r="G73">
-        <v>-0.4486808097222135</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1779084718384983</v>
+      </c>
+      <c r="H73">
+        <v>0.5146813879987682</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1217896957403533</v>
+        <v>-0.1123904964752414</v>
       </c>
       <c r="C74">
-        <v>0.04170709733547862</v>
+        <v>0.06317421496350777</v>
       </c>
       <c r="D74">
-        <v>0.03529455077433583</v>
+        <v>-0.07342510503737426</v>
       </c>
       <c r="E74">
-        <v>0.03520655144902451</v>
+        <v>0.004706258664528664</v>
       </c>
       <c r="F74">
-        <v>-0.1136762358981746</v>
+        <v>-0.08104723663266274</v>
       </c>
       <c r="G74">
-        <v>0.01770164854109648</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.07822983411132818</v>
+      </c>
+      <c r="H74">
+        <v>-0.009821133820328036</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2148845154475197</v>
+        <v>-0.2229757856826426</v>
       </c>
       <c r="C75">
-        <v>0.1180303860618412</v>
+        <v>0.1274161807362813</v>
       </c>
       <c r="D75">
-        <v>0.07067374837623767</v>
+        <v>-0.1095059909328725</v>
       </c>
       <c r="E75">
-        <v>0.09931082620883327</v>
+        <v>0.02227549119872721</v>
       </c>
       <c r="F75">
-        <v>-0.1753973678285667</v>
+        <v>-0.160134370151234</v>
       </c>
       <c r="G75">
-        <v>0.1002902529955954</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1570793218144192</v>
+      </c>
+      <c r="H75">
+        <v>-0.09528625580066016</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2588676982689681</v>
+        <v>-0.2051720415779271</v>
       </c>
       <c r="C76">
-        <v>0.119941985310352</v>
+        <v>0.1212486968541178</v>
       </c>
       <c r="D76">
-        <v>0.01048739777359663</v>
+        <v>-0.09788876287685762</v>
       </c>
       <c r="E76">
-        <v>0.06606406792853783</v>
+        <v>-0.01837021338710888</v>
       </c>
       <c r="F76">
-        <v>-0.1976832637442415</v>
+        <v>-0.1510910201583248</v>
       </c>
       <c r="G76">
-        <v>0.08527182979685383</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1700669291354766</v>
+      </c>
+      <c r="H76">
+        <v>-0.09602750692497397</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1389253123477074</v>
+        <v>-0.07532496559587147</v>
       </c>
       <c r="C77">
-        <v>-0.01516496531990231</v>
+        <v>0.0176176884448361</v>
       </c>
       <c r="D77">
-        <v>0.06679608101334901</v>
+        <v>-0.07358313431220417</v>
       </c>
       <c r="E77">
-        <v>0.1184486077481059</v>
+        <v>0.01290346443027144</v>
       </c>
       <c r="F77">
-        <v>0.2352253827369469</v>
+        <v>-0.009500270309367688</v>
       </c>
       <c r="G77">
-        <v>0.1465871963001635</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.1250663432765724</v>
+      </c>
+      <c r="H77">
+        <v>-0.05959979781949867</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05071118001240059</v>
+        <v>-0.03443711777094919</v>
       </c>
       <c r="C78">
-        <v>0.01358893995453227</v>
+        <v>0.01300658993637862</v>
       </c>
       <c r="D78">
-        <v>0.03260996385546519</v>
+        <v>-0.05725521625016656</v>
       </c>
       <c r="E78">
-        <v>0.1096675331380029</v>
+        <v>-0.005376202200790252</v>
       </c>
       <c r="F78">
-        <v>0.0356879738801603</v>
+        <v>-0.05394293369597203</v>
       </c>
       <c r="G78">
-        <v>0.05554995470989903</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.05073146532088124</v>
+      </c>
+      <c r="H78">
+        <v>0.02979203181972101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2161691637564102</v>
+        <v>-0.1742746233706995</v>
       </c>
       <c r="C80">
-        <v>-0.1173187328015213</v>
+        <v>0.07304898363562141</v>
       </c>
       <c r="D80">
-        <v>-0.9329262617163702</v>
+        <v>-0.001378900786223432</v>
       </c>
       <c r="E80">
-        <v>0.2135836876552726</v>
+        <v>-0.9587072469079526</v>
       </c>
       <c r="F80">
-        <v>0.04889919210068008</v>
+        <v>0.1361710720671052</v>
       </c>
       <c r="G80">
-        <v>-0.03063002721532824</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.09954569614918811</v>
+      </c>
+      <c r="H80">
+        <v>0.009773797192712461</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.151988339497893</v>
+        <v>-0.1500083853177883</v>
       </c>
       <c r="C81">
-        <v>0.09930581210040966</v>
+        <v>0.08548910954820629</v>
       </c>
       <c r="D81">
-        <v>0.02284396160869358</v>
+        <v>-0.06315460408839081</v>
       </c>
       <c r="E81">
-        <v>0.0616563313836658</v>
+        <v>0.0003703415634870935</v>
       </c>
       <c r="F81">
-        <v>-0.1688510777049637</v>
+        <v>-0.1090965403125744</v>
       </c>
       <c r="G81">
-        <v>0.02320127359034719</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1036983350976788</v>
+      </c>
+      <c r="H81">
+        <v>-0.06882529253110135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05070033371761067</v>
+        <v>-0.03756482767449943</v>
       </c>
       <c r="C83">
-        <v>-0.01131090695782232</v>
+        <v>0.01115955383391139</v>
       </c>
       <c r="D83">
-        <v>0.03981957538139626</v>
+        <v>-0.02076814887512074</v>
       </c>
       <c r="E83">
-        <v>0.04298872395882387</v>
+        <v>0.01269383316397597</v>
       </c>
       <c r="F83">
-        <v>0.06781247117756004</v>
+        <v>-0.01286272741768464</v>
       </c>
       <c r="G83">
-        <v>0.05418453320107283</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05494638269216597</v>
+      </c>
+      <c r="H83">
+        <v>0.01687569416876949</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2241316590803898</v>
+        <v>-0.2083751859385849</v>
       </c>
       <c r="C85">
-        <v>0.1020540196695537</v>
+        <v>0.1064796472415596</v>
       </c>
       <c r="D85">
-        <v>0.04267642428427187</v>
+        <v>-0.1147469253313279</v>
       </c>
       <c r="E85">
-        <v>0.06437280911872556</v>
+        <v>0.01160675683877758</v>
       </c>
       <c r="F85">
-        <v>-0.1900958333431824</v>
+        <v>-0.1421962694540255</v>
       </c>
       <c r="G85">
-        <v>0.09803310455002298</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1668252765834185</v>
+      </c>
+      <c r="H85">
+        <v>-0.06594670957572996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.003915642106191876</v>
+        <v>-0.01347995396045585</v>
       </c>
       <c r="C86">
-        <v>-0.009247525484490506</v>
+        <v>-0.0009183415926402273</v>
       </c>
       <c r="D86">
-        <v>0.00273336352474105</v>
+        <v>-0.005325957996764512</v>
       </c>
       <c r="E86">
-        <v>0.05115257751664493</v>
+        <v>0.00905601604437029</v>
       </c>
       <c r="F86">
-        <v>0.0766535530061324</v>
+        <v>0.001261709487258616</v>
       </c>
       <c r="G86">
-        <v>0.03249552862933308</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.08154554896817438</v>
+      </c>
+      <c r="H86">
+        <v>0.04235761728511289</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03027022019103389</v>
+        <v>-0.02757701326805781</v>
       </c>
       <c r="C87">
-        <v>0.006734276871918477</v>
+        <v>0.005612319181792267</v>
       </c>
       <c r="D87">
-        <v>0.01477672741724217</v>
+        <v>-0.02572284065110781</v>
       </c>
       <c r="E87">
-        <v>0.03171037054386805</v>
+        <v>0.0005011284373463318</v>
       </c>
       <c r="F87">
-        <v>0.07944306966113233</v>
+        <v>-0.02626482763341911</v>
       </c>
       <c r="G87">
-        <v>-0.01615106598683093</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08947717951845667</v>
+      </c>
+      <c r="H87">
+        <v>0.03117248015284171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0100155727137436</v>
+        <v>-0.03882920643619941</v>
       </c>
       <c r="C88">
-        <v>0.01714439500151722</v>
+        <v>-0.005979790643308317</v>
       </c>
       <c r="D88">
-        <v>-0.02321096452719979</v>
+        <v>0.006723819779003127</v>
       </c>
       <c r="E88">
-        <v>-0.003691023444961656</v>
+        <v>-0.007465369937940705</v>
       </c>
       <c r="F88">
-        <v>0.03341253352863652</v>
+        <v>-0.01161386468528373</v>
       </c>
       <c r="G88">
-        <v>0.08640388810355795</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.00312688349424924</v>
+      </c>
+      <c r="H88">
+        <v>0.007220325828280272</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1319334632954904</v>
+        <v>-0.2147848555695261</v>
       </c>
       <c r="C89">
-        <v>0.0886809591143802</v>
+        <v>0.06264756611679193</v>
       </c>
       <c r="D89">
-        <v>-0.01543693901565425</v>
+        <v>0.3139497343158651</v>
       </c>
       <c r="E89">
-        <v>-0.2977773256565177</v>
+        <v>0.08460172719028131</v>
       </c>
       <c r="F89">
-        <v>0.101814549295872</v>
+        <v>0.17030712151898</v>
       </c>
       <c r="G89">
-        <v>0.06705885779603592</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.007165878303586372</v>
+      </c>
+      <c r="H89">
+        <v>-0.0258666953418087</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1171053704168441</v>
+        <v>-0.1699506666711623</v>
       </c>
       <c r="C90">
-        <v>0.09569133898320621</v>
+        <v>0.05069727243056828</v>
       </c>
       <c r="D90">
-        <v>-0.06442331390420604</v>
+        <v>0.2786916071056654</v>
       </c>
       <c r="E90">
-        <v>-0.2852587360719235</v>
+        <v>0.0562905393508114</v>
       </c>
       <c r="F90">
-        <v>0.07100678205358479</v>
+        <v>0.1611988187375153</v>
       </c>
       <c r="G90">
-        <v>-0.01024101480277538</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.03584545318153808</v>
+      </c>
+      <c r="H90">
+        <v>-0.04433930577921249</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2885997136408504</v>
+        <v>-0.2271081182672895</v>
       </c>
       <c r="C91">
-        <v>0.09795754011559528</v>
+        <v>0.1279579430467412</v>
       </c>
       <c r="D91">
-        <v>0.0624242348899462</v>
+        <v>-0.1168335213452767</v>
       </c>
       <c r="E91">
-        <v>0.06261693177354051</v>
+        <v>0.01418692788535126</v>
       </c>
       <c r="F91">
-        <v>-0.2610562497967821</v>
+        <v>-0.1507844405206403</v>
       </c>
       <c r="G91">
-        <v>0.05842256722053717</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.2063477879736775</v>
+      </c>
+      <c r="H91">
+        <v>-0.129881532540918</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1909092741288576</v>
+        <v>-0.2271176244835017</v>
       </c>
       <c r="C92">
-        <v>0.06761672488334104</v>
+        <v>0.1221026567053592</v>
       </c>
       <c r="D92">
-        <v>-0.09139373015954076</v>
+        <v>0.2234138992465784</v>
       </c>
       <c r="E92">
-        <v>-0.45691587702522</v>
+        <v>0.04033145965915034</v>
       </c>
       <c r="F92">
-        <v>0.1554500196258776</v>
+        <v>0.1408389407845036</v>
       </c>
       <c r="G92">
-        <v>0.2538886219789482</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.04183365604269087</v>
+      </c>
+      <c r="H92">
+        <v>-0.145981269077909</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1329017929555162</v>
+        <v>-0.1954637862352132</v>
       </c>
       <c r="C93">
-        <v>0.07590322334089379</v>
+        <v>0.06502474189746804</v>
       </c>
       <c r="D93">
-        <v>-0.07498075980631183</v>
+        <v>0.2925821920632633</v>
       </c>
       <c r="E93">
-        <v>-0.3934888711354774</v>
+        <v>0.07366455344962426</v>
       </c>
       <c r="F93">
-        <v>0.01718701433437721</v>
+        <v>0.1980293843618435</v>
       </c>
       <c r="G93">
-        <v>-0.02404872411579967</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.04627322869768652</v>
+      </c>
+      <c r="H93">
+        <v>0.01527312193901984</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2612255527809132</v>
+        <v>-0.2490943472999434</v>
       </c>
       <c r="C94">
-        <v>0.1290789195358186</v>
+        <v>0.1196565816467331</v>
       </c>
       <c r="D94">
-        <v>0.02973600615806681</v>
+        <v>-0.09024409752487712</v>
       </c>
       <c r="E94">
-        <v>0.0532216206590352</v>
+        <v>0.03087119730311933</v>
       </c>
       <c r="F94">
-        <v>-0.3003629490373579</v>
+        <v>-0.1650047389949171</v>
       </c>
       <c r="G94">
-        <v>0.007593435083463204</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2100902372358461</v>
+      </c>
+      <c r="H94">
+        <v>-0.1423990682982386</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07447968830545861</v>
+        <v>-0.06494373962322787</v>
       </c>
       <c r="C95">
-        <v>0.01133029587264593</v>
+        <v>0.03913945862803261</v>
       </c>
       <c r="D95">
-        <v>0.06541075921240934</v>
+        <v>-0.07418372342062753</v>
       </c>
       <c r="E95">
-        <v>0.08424777697908656</v>
+        <v>0.07068386336433952</v>
       </c>
       <c r="F95">
-        <v>0.03964729056433429</v>
+        <v>-0.03524076847340107</v>
       </c>
       <c r="G95">
-        <v>0.3737226563823938</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.05991436573416437</v>
+      </c>
+      <c r="H95">
+        <v>0.009394082952026907</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1875575054529394</v>
+        <v>-0.173142960756469</v>
       </c>
       <c r="C98">
-        <v>0.042550915402388</v>
+        <v>0.08822044435706344</v>
       </c>
       <c r="D98">
-        <v>0.05594439937128466</v>
+        <v>-0.0298181126840899</v>
       </c>
       <c r="E98">
-        <v>-0.0513872530597283</v>
+        <v>0.05591220314981883</v>
       </c>
       <c r="F98">
-        <v>0.05657565121083857</v>
+        <v>-0.03229215461705039</v>
       </c>
       <c r="G98">
-        <v>-0.2882513091421608</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1520835482582515</v>
+      </c>
+      <c r="H98">
+        <v>0.3716919623366826</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001524559335408061</v>
+        <v>-0.01311827267869649</v>
       </c>
       <c r="C101">
-        <v>0.02974191239619998</v>
+        <v>0.0014343478800699</v>
       </c>
       <c r="D101">
-        <v>0.008315500460979097</v>
+        <v>-0.002209560710792683</v>
       </c>
       <c r="E101">
-        <v>0.1266617448949625</v>
+        <v>-0.006558183111656643</v>
       </c>
       <c r="F101">
-        <v>0.1680123767585391</v>
+        <v>-0.03590347380409895</v>
       </c>
       <c r="G101">
-        <v>-0.0284559254001329</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.09765346429574039</v>
+      </c>
+      <c r="H101">
+        <v>-0.07033198086335381</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09300950341240108</v>
+        <v>-0.1054782525407677</v>
       </c>
       <c r="C102">
-        <v>0.03125231677054555</v>
+        <v>0.04615067538374121</v>
       </c>
       <c r="D102">
-        <v>0.01115444905431256</v>
+        <v>-0.05783794360243003</v>
       </c>
       <c r="E102">
-        <v>0.06784570114122364</v>
+        <v>-0.0008830509234038007</v>
       </c>
       <c r="F102">
-        <v>-0.1257859305795308</v>
+        <v>-0.07429636109239142</v>
       </c>
       <c r="G102">
-        <v>0.09269386410654745</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.09235517156183097</v>
+      </c>
+      <c r="H102">
+        <v>-0.05612251278219901</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.024573068651955</v>
+        <v>-0.02175057234215074</v>
       </c>
       <c r="C103">
-        <v>0.01284063654538931</v>
+        <v>0.01075324929457715</v>
       </c>
       <c r="D103">
-        <v>0.01116499989603104</v>
+        <v>-0.01238633512876503</v>
       </c>
       <c r="E103">
-        <v>0.00486831594129995</v>
+        <v>-0.005774583964461413</v>
       </c>
       <c r="F103">
-        <v>-0.0247285651324333</v>
+        <v>-0.01886182770510954</v>
       </c>
       <c r="G103">
-        <v>0.03765969846110151</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.00899864846205645</v>
+      </c>
+      <c r="H103">
+        <v>-0.009491896964530904</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.3710230578695066</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9064244750082875</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.06613118208141826</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02718271061046133</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1558757496497484</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.03703979237940779</v>
+      </c>
+      <c r="H104">
+        <v>-0.03259551103375238</v>
       </c>
     </row>
   </sheetData>
